--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -14,12 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Inputs</t>
   </si>
   <si>
-    <t>lambda</t>
+    <t>Desired P(block)</t>
+  </si>
+  <si>
+    <t>Arrival Rate</t>
+  </si>
+  <si>
+    <t>Service Rate</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Number of Servers</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Actual P(block)</t>
+  </si>
+  <si>
+    <t>0.008747498215510364</t>
   </si>
 </sst>
 </file>
@@ -351,20 +384,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Part 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,25 +19,31 @@
     <t>Inputs</t>
   </si>
   <si>
-    <t>Desired P(block)</t>
-  </si>
-  <si>
     <t>Arrival Rate</t>
   </si>
   <si>
     <t>Service Rate</t>
   </si>
   <si>
+    <t>P(W &gt; 0) Less Than</t>
+  </si>
+  <si>
+    <t>E(W) Less Than</t>
+  </si>
+  <si>
     <t>Values</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>12.0</t>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.25</t>
   </si>
   <si>
     <t>Results</t>
@@ -46,13 +52,7 @@
     <t>Number of Servers</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Actual P(block)</t>
-  </si>
-  <si>
-    <t>0.008747498215510364</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,7 +395,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -403,7 +403,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -419,27 +419,27 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -43,7 +43,7 @@
     <t>0.2</t>
   </si>
   <si>
-    <t>0.25</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>Results</t>
@@ -52,7 +52,7 @@
     <t>Number of Servers</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
 </sst>
 </file>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -37,7 +37,7 @@
     <t>10.0</t>
   </si>
   <si>
-    <t>11.0</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>0.2</t>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Part 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,31 +19,25 @@
     <t>Inputs</t>
   </si>
   <si>
+    <t>Desired P(block)</t>
+  </si>
+  <si>
     <t>Arrival Rate</t>
   </si>
   <si>
     <t>Service Rate</t>
   </si>
   <si>
-    <t>P(W &gt; 0) Less Than</t>
-  </si>
-  <si>
-    <t>E(W) Less Than</t>
-  </si>
-  <si>
     <t>Values</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
     <t>0.2</t>
   </si>
   <si>
-    <t>0.5</t>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
   </si>
   <si>
     <t>Results</t>
@@ -52,7 +46,13 @@
     <t>Number of Servers</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Actual P(block)</t>
+  </si>
+  <si>
+    <t>0.1592356687898089</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,7 +395,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -403,7 +403,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -419,27 +419,27 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -7,37 +7,43 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Part 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Inputs</t>
   </si>
   <si>
-    <t>Desired P(block)</t>
-  </si>
-  <si>
     <t>Arrival Rate</t>
   </si>
   <si>
     <t>Service Rate</t>
   </si>
   <si>
+    <t>P(W &gt; 0) Less Than</t>
+  </si>
+  <si>
+    <t>E(W) Less Than</t>
+  </si>
+  <si>
     <t>Values</t>
   </si>
   <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
     <t>0.2</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>Results</t>
@@ -46,13 +52,19 @@
     <t>Number of Servers</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Actual P(block)</t>
-  </si>
-  <si>
-    <t>0.1592356687898089</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>E(S)</t>
+  </si>
+  <si>
+    <t>0.05555555555555556</t>
+  </si>
+  <si>
+    <t>E(N)</t>
+  </si>
+  <si>
+    <t>0.38461538461538464</t>
   </si>
 </sst>
 </file>
@@ -384,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -403,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -411,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -419,28 +431,44 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -7,64 +7,52 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Part 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Inputs</t>
   </si>
   <si>
+    <t>Desired P(block)</t>
+  </si>
+  <si>
     <t>Arrival Rate</t>
   </si>
   <si>
     <t>Service Rate</t>
   </si>
   <si>
-    <t>P(W &gt; 0) Less Than</t>
-  </si>
-  <si>
-    <t>E(W) Less Than</t>
-  </si>
-  <si>
     <t>Values</t>
   </si>
   <si>
+    <t>0.2</t>
+  </si>
+  <si>
     <t>5.0</t>
   </si>
   <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>Results</t>
   </si>
   <si>
     <t>Number of Servers</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>E(S)</t>
-  </si>
-  <si>
-    <t>0.05555555555555556</t>
-  </si>
-  <si>
-    <t>E(N)</t>
-  </si>
-  <si>
-    <t>0.38461538461538464</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Actual P(block)</t>
+  </si>
+  <si>
+    <t>0.1592356687898089</t>
   </si>
 </sst>
 </file>
@@ -396,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +395,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -415,7 +403,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -423,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -431,44 +419,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -7,37 +7,43 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Part 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Inputs</t>
   </si>
   <si>
-    <t>Desired P(block)</t>
-  </si>
-  <si>
     <t>Arrival Rate</t>
   </si>
   <si>
     <t>Service Rate</t>
   </si>
   <si>
+    <t>P(W &gt; 0) Less Than</t>
+  </si>
+  <si>
+    <t>E(W) Less Than</t>
+  </si>
+  <si>
     <t>Values</t>
   </si>
   <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
     <t>0.2</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Results</t>
@@ -46,13 +52,19 @@
     <t>Number of Servers</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Actual P(block)</t>
-  </si>
-  <si>
-    <t>0.1592356687898089</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>E(S)</t>
+  </si>
+  <si>
+    <t>0.0033003300330033004</t>
+  </si>
+  <si>
+    <t>E(N)</t>
+  </si>
+  <si>
+    <t>0.49261083743842365</t>
   </si>
 </sst>
 </file>
@@ -384,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -403,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -411,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -419,28 +431,44 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -1,48 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SwaggySpencerMcDee/Documents/ee555/mini_project/ee555-queuing_theory/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB9C0F8-9D8B-9E46-BC47-70C53FBA8C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Part 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 1" sheetId="3" r:id="rId1"/>
+    <sheet name="Part 2" sheetId="1" r:id="rId2"/>
+    <sheet name="Part 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Part 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Part 5" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Inputs</t>
   </si>
   <si>
+    <t>Values</t>
+  </si>
+  <si>
     <t>Arrival Rate</t>
   </si>
   <si>
+    <t>100.0</t>
+  </si>
+  <si>
     <t>Service Rate</t>
   </si>
   <si>
+    <t>101.0</t>
+  </si>
+  <si>
     <t>P(W &gt; 0) Less Than</t>
   </si>
   <si>
+    <t>0.2</t>
+  </si>
+  <si>
     <t>E(W) Less Than</t>
   </si>
   <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
@@ -66,12 +76,39 @@
   <si>
     <t>0.49261083743842365</t>
   </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Utilization</t>
+  </si>
+  <si>
+    <t>0.5011135857461025</t>
+  </si>
+  <si>
+    <t>Server1 Rate</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>P(idle)</t>
+  </si>
+  <si>
+    <t>0.49888641425389746</t>
+  </si>
+  <si>
+    <t>Server2 Rate</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +145,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -154,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,9 +231,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,6 +283,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,59 +476,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02975CBC-27AB-AE4B-8EE4-D20635B8F503}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -455,7 +548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -463,12 +556,99 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01441A6E-0D6C-9444-A2AE-B3D478E95FC2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045987D-C55B-EE4F-A557-924E8ACD48C8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -1,125 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SwaggySpencerMcDee/Documents/ee555/mini_project/ee555-queuing_theory/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB9C0F8-9D8B-9E46-BC47-70C53FBA8C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Part 1" sheetId="3" r:id="rId1"/>
-    <sheet name="Part 2" sheetId="1" r:id="rId2"/>
-    <sheet name="Part 3" sheetId="4" r:id="rId3"/>
-    <sheet name="Part 4" sheetId="5" r:id="rId4"/>
-    <sheet name="Part 5" sheetId="2" r:id="rId5"/>
+    <sheet name="Part 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Part 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Part 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Part 4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Part 5" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Arrival Rate</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>Service Rate</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>P(W &gt; 0) Less Than</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>E(W) Less Than</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Number of Servers</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>E(S)</t>
-  </si>
-  <si>
-    <t>0.0033003300330033004</t>
-  </si>
-  <si>
-    <t>E(N)</t>
-  </si>
-  <si>
-    <t>0.49261083743842365</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>Utilization</t>
-  </si>
-  <si>
-    <t>0.5011135857461025</t>
-  </si>
-  <si>
-    <t>Server1 Rate</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>P(idle)</t>
-  </si>
-  <si>
-    <t>0.49888641425389746</t>
-  </si>
-  <si>
-    <t>Server2 Rate</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,24 +47,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -476,182 +379,533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02975CBC-27AB-AE4B-8EE4-D20635B8F503}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Inputs</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Max P(blocking)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Number of Servers</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Arrival Rate</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>P(blocking)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.49875311720698257</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Service Rate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Inputs</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Arrival Rate</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Service Rate</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P(W &gt; 0) Less Than</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>E(W) Less Than</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Number of Servers</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>E(S)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0033003300330033004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>E(N)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.49261083743842365</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01441A6E-0D6C-9444-A2AE-B3D478E95FC2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Inputs</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Prep Time</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>P(busy)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Number of Servers</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>E(T)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.99999999999997</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Service Rate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Throughput</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.011111111111111115</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Proportion Waiting</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.9988888888888889</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045987D-C55B-EE4F-A557-924E8ACD48C8}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Inputs</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Utilization</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.7999087254067538</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Arrival Rate</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>E(N)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.081135750457513</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Service Rate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Inputs</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Arrival Rate</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Utilization</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.6536161131250601</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Server1 Rate</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>P(idle)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.34638388687493993</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Server2 Rate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -432,7 +432,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>200.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -454,7 +454,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.49875311720698257</t>
+          <t>0.15094339622641512</t>
         </is>
       </c>
     </row>
@@ -466,9 +466,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>201.0</t>
-        </is>
-      </c>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -432,7 +432,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -454,7 +454,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.15094339622641512</t>
+          <t>0.0006416879652056608</t>
         </is>
       </c>
     </row>
@@ -469,8 +469,6 @@
           <t>5.0</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -483,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,52 +500,92 @@
           <t>Values</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arrival Rate</t>
+          <t>Max P(wait)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Number of Servers</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Service Rate</t>
+          <t>Max E(w)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>E(S)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02380952380952381</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P(W &gt; 0) Less Than</t>
+          <t>Arrival Rate</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E(N)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02380952380952381</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E(W) Less Than</t>
+          <t>Service Rate</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>21.0</t>
         </is>
       </c>
     </row>
@@ -643,7 +681,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -653,7 +691,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6701030927835052</t>
         </is>
       </c>
     </row>
@@ -665,7 +703,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -675,7 +713,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.99999999999997</t>
+          <t>1.8556701030927834</t>
         </is>
       </c>
     </row>
@@ -687,7 +725,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -697,7 +735,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.011111111111111115</t>
+          <t>0.538888888888889</t>
         </is>
       </c>
     </row>
@@ -709,7 +747,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.9988888888888889</t>
+          <t>0.32638888888888884</t>
         </is>
       </c>
     </row>
@@ -762,7 +800,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -772,7 +810,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.7999087254067538</t>
+          <t>0.6780485778822252</t>
         </is>
       </c>
     </row>
@@ -784,7 +822,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -794,7 +832,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.081135750457513</t>
+          <t>1.5243927764721845</t>
         </is>
       </c>
     </row>
@@ -806,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -859,7 +897,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -869,7 +907,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.6536161131250601</t>
+          <t>1.051948051948052</t>
         </is>
       </c>
     </row>
@@ -881,7 +919,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -891,7 +929,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.34638388687493993</t>
+          <t>-0.051948051948051965</t>
         </is>
       </c>
     </row>
@@ -903,7 +941,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.02380952380952381</t>
+          <t>0.06666666666666667</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.02380952380952381</t>
+          <t>1.9999999999999998</t>
         </is>
       </c>
     </row>
@@ -585,9 +585,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.0</t>
-        </is>
-      </c>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.06666666666666667</t>
+          <t>0.05</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.9999999999999998</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -551,7 +551,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.017391304347826087</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.051948051948052</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.051948051948051965</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -432,7 +432,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -454,7 +454,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0006416879652056608</t>
+          <t>0.0033186086434399764</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>0.25</t>
         </is>
       </c>
     </row>
@@ -517,11 +517,7 @@
           <t>Max P(wait)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Number of Servers</t>
@@ -551,7 +547,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.017391304347826087</t>
+          <t>0.1018867924528302</t>
         </is>
       </c>
     </row>
@@ -563,7 +559,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -573,7 +569,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>4.528301886792453</t>
         </is>
       </c>
     </row>
@@ -683,7 +679,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -693,7 +689,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.6701030927835052</t>
+          <t>0.8196836008567772</t>
         </is>
       </c>
     </row>
@@ -705,7 +701,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -715,7 +711,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.8556701030927834</t>
+          <t>81.14237961445023</t>
         </is>
       </c>
     </row>
@@ -727,7 +723,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -737,7 +733,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.538888888888889</t>
+          <t>0.012324016189216061</t>
         </is>
       </c>
     </row>
@@ -749,7 +745,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.32638888888888884</t>
+          <t>0.9753519676215678</t>
         </is>
       </c>
     </row>
@@ -802,7 +798,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -812,7 +808,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.6780485778822252</t>
+          <t>0.6893203883495146</t>
         </is>
       </c>
     </row>
@@ -824,7 +820,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -834,7 +830,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.5243927764721845</t>
+          <t>1.2427184466019416</t>
         </is>
       </c>
     </row>
@@ -846,7 +842,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>20.0</t>
         </is>
       </c>
     </row>
@@ -899,7 +895,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -909,7 +905,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
     </row>
@@ -921,7 +917,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -931,7 +927,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
     </row>
@@ -943,7 +939,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>

--- a/queuing_theory.xlsx
+++ b/queuing_theory.xlsx
@@ -517,7 +517,6 @@
           <t>Max P(wait)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Number of Servers</t>
@@ -525,7 +524,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -537,7 +536,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,7 +546,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.1018867924528302</t>
+          <t>0.5903790087463555</t>
         </is>
       </c>
     </row>
@@ -559,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +568,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.528301886792453</t>
+          <t>3.354227405247813</t>
         </is>
       </c>
     </row>
@@ -581,11 +580,9 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>0.2</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -689,7 +686,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.8196836008567772</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -711,7 +708,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.14237961445023</t>
+          <t>74.96666666666665</t>
         </is>
       </c>
     </row>
@@ -723,7 +720,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -733,11 +730,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.012324016189216061</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>Proportion Waiting</t>
@@ -745,7 +744,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.9753519676215678</t>
+          <t>0.9995555555555555</t>
         </is>
       </c>
     </row>
